--- a/biology/Botanique/Oplonia/Oplonia.xlsx
+++ b/biology/Botanique/Oplonia/Oplonia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Oplonia regroupe une dizaine d'espèces de la famille des Acanthacées.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon "The Plant List"[2] 6 octobre 2012
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon "The Plant List" 6 octobre 2012
 Oplonia armata (Sw.) Stearn , (1971)
 Oplonia grandiflora (Lindau) Stearn 	, (1971)
 Oplonia hutchisonii Wassh. , (1976)
@@ -527,9 +541,9 @@
 Oplonia purpurascens (Griseb.) Stearn , (1971)
 Oplonia tetrasticha (C. Wright ex Griseb.) Stearn , (1971)
 Oplonia vincoides (Lam.) Stearn , (1971)
-Selon NCBI  (3 Aug 2010)[3] :
+Selon NCBI  (3 Aug 2010) :
 Oplonia microphylla
-Selon ITIS      (3 Aug 2010)[4] :
+Selon ITIS      (3 Aug 2010) :
 Oplonia microphylla (Lam.) Stearn
 Oplonia spinosa (Jacq.) Raf.</t>
         </is>
@@ -559,9 +573,11 @@
           <t>Espèces au statut non encore résolu</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon "The Plant List"[2] 6 octobre 2012
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon "The Plant List" 6 octobre 2012
 Oplonia acicularis (Sw.) Stearn
 Oplonia acuminata Stearn
 Oplonia acunae Borhidi
